--- a/public/excel/1655707181.xlsx
+++ b/public/excel/1655707181.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNhanAi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\web.dev\GitWebComit\phanmembanhang\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFABB161-C0FD-43D6-925A-9C11F32DAB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0B22ED-2D8A-4F10-B1FF-E661AA08D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="2092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="2094">
   <si>
     <t xml:space="preserve">                                                tháng 03/2022</t>
   </si>
@@ -6310,6 +6310,12 @@
   </si>
   <si>
     <t>A192</t>
+  </si>
+  <si>
+    <t>Danh Mục</t>
+  </si>
+  <si>
+    <t>CM</t>
   </si>
 </sst>
 </file>
@@ -6537,7 +6543,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6633,6 +6639,9 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7015,8 +7024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7026,72 +7035,76 @@
     <col min="3" max="3" width="10.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="53" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -7107,8 +7120,11 @@
       <c r="E9" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7124,8 +7140,11 @@
       <c r="E10" s="18">
         <v>20000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -7141,8 +7160,11 @@
       <c r="E11" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
@@ -7158,8 +7180,11 @@
       <c r="E12" s="18">
         <v>19000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
@@ -7175,8 +7200,11 @@
       <c r="E13" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
@@ -7192,8 +7220,11 @@
       <c r="E14" s="18">
         <v>26000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -7209,8 +7240,11 @@
       <c r="E15" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
@@ -7226,8 +7260,11 @@
       <c r="E16" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
@@ -7243,8 +7280,11 @@
       <c r="E17" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
@@ -7260,8 +7300,11 @@
       <c r="E18" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
@@ -7277,8 +7320,11 @@
       <c r="E19" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -7294,8 +7340,11 @@
       <c r="E20" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
@@ -7311,8 +7360,11 @@
       <c r="E21" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>42</v>
       </c>
@@ -7328,8 +7380,11 @@
       <c r="E22" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
@@ -7345,8 +7400,11 @@
       <c r="E23" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
@@ -7362,8 +7420,11 @@
       <c r="E24" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>49</v>
       </c>
@@ -7379,8 +7440,11 @@
       <c r="E25" s="17">
         <v>17000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>52</v>
       </c>
@@ -7396,8 +7460,11 @@
       <c r="E26" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>56</v>
       </c>
@@ -7413,8 +7480,11 @@
       <c r="E27" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>59</v>
       </c>
@@ -7430,8 +7500,11 @@
       <c r="E28" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
@@ -7447,8 +7520,11 @@
       <c r="E29" s="18">
         <v>31000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>66</v>
       </c>
@@ -7464,8 +7540,11 @@
       <c r="E30" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>68</v>
       </c>
@@ -7481,8 +7560,11 @@
       <c r="E31" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
@@ -7498,8 +7580,11 @@
       <c r="E32" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>74</v>
       </c>
@@ -7515,8 +7600,11 @@
       <c r="E33" s="18">
         <v>31000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>77</v>
       </c>
@@ -7532,8 +7620,11 @@
       <c r="E34" s="17">
         <v>21000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>79</v>
       </c>
@@ -7549,8 +7640,11 @@
       <c r="E35" s="18">
         <v>29000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>81</v>
       </c>
@@ -7566,8 +7660,11 @@
       <c r="E36" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>83</v>
       </c>
@@ -7583,8 +7680,11 @@
       <c r="E37" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>85</v>
       </c>
@@ -7600,8 +7700,11 @@
       <c r="E38" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -7617,8 +7720,11 @@
       <c r="E39" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>90</v>
       </c>
@@ -7634,8 +7740,11 @@
       <c r="E40" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>92</v>
       </c>
@@ -7651,8 +7760,11 @@
       <c r="E41" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>95</v>
       </c>
@@ -7668,8 +7780,11 @@
       <c r="E42" s="18">
         <v>25000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
@@ -7685,8 +7800,11 @@
       <c r="E43" s="17">
         <v>55000</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>99</v>
       </c>
@@ -7702,8 +7820,11 @@
       <c r="E44" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>102</v>
       </c>
@@ -7719,8 +7840,11 @@
       <c r="E45" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -7736,8 +7860,11 @@
       <c r="E46" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>106</v>
       </c>
@@ -7753,8 +7880,11 @@
       <c r="E47" s="18">
         <v>30000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>109</v>
       </c>
@@ -7770,8 +7900,11 @@
       <c r="E48" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>112</v>
       </c>
@@ -7787,8 +7920,11 @@
       <c r="E49" s="17">
         <v>19000</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>115</v>
       </c>
@@ -7804,8 +7940,11 @@
       <c r="E50" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>118</v>
       </c>
@@ -7821,8 +7960,11 @@
       <c r="E51" s="18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>121</v>
       </c>
@@ -7838,8 +7980,11 @@
       <c r="E52" s="17">
         <v>23000</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>123</v>
       </c>
@@ -7855,8 +8000,11 @@
       <c r="E53" s="18">
         <v>25000</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>125</v>
       </c>
@@ -7872,8 +8020,11 @@
       <c r="E54" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>127</v>
       </c>
@@ -7889,8 +8040,11 @@
       <c r="E55" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>130</v>
       </c>
@@ -7906,8 +8060,11 @@
       <c r="E56" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>133</v>
       </c>
@@ -7923,8 +8080,11 @@
       <c r="E57" s="17">
         <v>2500</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>136</v>
       </c>
@@ -7940,8 +8100,11 @@
       <c r="E58" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>139</v>
       </c>
@@ -7957,8 +8120,11 @@
       <c r="E59" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>142</v>
       </c>
@@ -7974,8 +8140,11 @@
       <c r="E60" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>145</v>
       </c>
@@ -7991,8 +8160,11 @@
       <c r="E61" s="18">
         <v>19000</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>148</v>
       </c>
@@ -8008,8 +8180,11 @@
       <c r="E62" s="17">
         <v>54000</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>151</v>
       </c>
@@ -8025,8 +8200,11 @@
       <c r="E63" s="18">
         <v>27000</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>153</v>
       </c>
@@ -8042,8 +8220,11 @@
       <c r="E64" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>156</v>
       </c>
@@ -8059,8 +8240,11 @@
       <c r="E65" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>159</v>
       </c>
@@ -8076,8 +8260,11 @@
       <c r="E66" s="18">
         <v>44000</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>162</v>
       </c>
@@ -8093,8 +8280,11 @@
       <c r="E67" s="17">
         <v>51000</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>164</v>
       </c>
@@ -8110,8 +8300,11 @@
       <c r="E68" s="17">
         <v>48000</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>166</v>
       </c>
@@ -8127,8 +8320,11 @@
       <c r="E69" s="17">
         <v>53000</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>168</v>
       </c>
@@ -8144,8 +8340,11 @@
       <c r="E70" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>171</v>
       </c>
@@ -8161,8 +8360,11 @@
       <c r="E71" s="18">
         <v>12000</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>174</v>
       </c>
@@ -8178,8 +8380,11 @@
       <c r="E72" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>176</v>
       </c>
@@ -8195,8 +8400,11 @@
       <c r="E73" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>179</v>
       </c>
@@ -8212,8 +8420,11 @@
       <c r="E74" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>182</v>
       </c>
@@ -8229,8 +8440,11 @@
       <c r="E75" s="17">
         <v>60000</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>185</v>
       </c>
@@ -8246,8 +8460,11 @@
       <c r="E76" s="17">
         <v>72000</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>188</v>
       </c>
@@ -8263,8 +8480,11 @@
       <c r="E77" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>190</v>
       </c>
@@ -8280,8 +8500,11 @@
       <c r="E78" s="18">
         <v>83000</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>193</v>
       </c>
@@ -8297,8 +8520,11 @@
       <c r="E79" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>196</v>
       </c>
@@ -8314,8 +8540,11 @@
       <c r="E80" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>199</v>
       </c>
@@ -8331,8 +8560,11 @@
       <c r="E81" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>201</v>
       </c>
@@ -8348,8 +8580,11 @@
       <c r="E82" s="18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>203</v>
       </c>
@@ -8365,8 +8600,11 @@
       <c r="E83" s="18">
         <v>13000</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>206</v>
       </c>
@@ -8382,8 +8620,11 @@
       <c r="E84" s="18">
         <v>33000</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>209</v>
       </c>
@@ -8399,8 +8640,11 @@
       <c r="E85" s="18">
         <v>11000</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>212</v>
       </c>
@@ -8416,8 +8660,11 @@
       <c r="E86" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>214</v>
       </c>
@@ -8433,8 +8680,11 @@
       <c r="E87" s="18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>216</v>
       </c>
@@ -8450,8 +8700,11 @@
       <c r="E88" s="18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>219</v>
       </c>
@@ -8467,8 +8720,11 @@
       <c r="E89" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>222</v>
       </c>
@@ -8484,8 +8740,11 @@
       <c r="E90" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>225</v>
       </c>
@@ -8501,8 +8760,11 @@
       <c r="E91" s="18">
         <v>33000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>228</v>
       </c>
@@ -8518,8 +8780,11 @@
       <c r="E92" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>231</v>
       </c>
@@ -8535,8 +8800,11 @@
       <c r="E93" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>235</v>
       </c>
@@ -8552,8 +8820,11 @@
       <c r="E94" s="17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>237</v>
       </c>
@@ -8569,8 +8840,11 @@
       <c r="E95" s="17">
         <v>23000</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>241</v>
       </c>
@@ -8586,8 +8860,11 @@
       <c r="E96" s="18">
         <v>17000</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>244</v>
       </c>
@@ -8603,8 +8880,11 @@
       <c r="E97" s="18">
         <v>21000</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>246</v>
       </c>
@@ -8620,8 +8900,11 @@
       <c r="E98" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>248</v>
       </c>
@@ -8637,8 +8920,11 @@
       <c r="E99" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>251</v>
       </c>
@@ -8654,8 +8940,11 @@
       <c r="E100" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>254</v>
       </c>
@@ -8671,8 +8960,11 @@
       <c r="E101" s="18">
         <v>22000</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>257</v>
       </c>
@@ -8688,8 +8980,11 @@
       <c r="E102" s="18">
         <v>20000</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>260</v>
       </c>
@@ -8705,8 +9000,11 @@
       <c r="E103" s="17">
         <v>36000</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>263</v>
       </c>
@@ -8722,8 +9020,11 @@
       <c r="E104" s="17">
         <v>41000</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>266</v>
       </c>
@@ -8739,8 +9040,11 @@
       <c r="E105" s="17">
         <v>32000</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>269</v>
       </c>
@@ -8756,8 +9060,11 @@
       <c r="E106" s="18">
         <v>31000</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>271</v>
       </c>
@@ -8773,8 +9080,11 @@
       <c r="E107" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>273</v>
       </c>
@@ -8790,8 +9100,11 @@
       <c r="E108" s="18">
         <v>37000</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>275</v>
       </c>
@@ -8807,8 +9120,11 @@
       <c r="E109" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>279</v>
       </c>
@@ -8822,8 +9138,11 @@
         <v>282</v>
       </c>
       <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>283</v>
       </c>
@@ -8837,8 +9156,11 @@
         <v>284</v>
       </c>
       <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>285</v>
       </c>
@@ -8852,8 +9174,11 @@
         <v>286</v>
       </c>
       <c r="E112" s="18"/>
-    </row>
-    <row r="113" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>287</v>
       </c>
@@ -8869,8 +9194,11 @@
       <c r="E113" s="17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>290</v>
       </c>
@@ -8886,8 +9214,11 @@
       <c r="E114" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>293</v>
       </c>
@@ -8903,8 +9234,11 @@
       <c r="E115" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>295</v>
       </c>
@@ -8920,8 +9254,11 @@
       <c r="E116" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>297</v>
       </c>
@@ -8937,8 +9274,11 @@
       <c r="E117" s="17">
         <v>17000</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>300</v>
       </c>
@@ -8954,8 +9294,11 @@
       <c r="E118" s="18">
         <v>17000</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>302</v>
       </c>
@@ -8971,8 +9314,11 @@
       <c r="E119" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F119" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>304</v>
       </c>
@@ -8988,8 +9334,11 @@
       <c r="E120" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>306</v>
       </c>
@@ -9005,8 +9354,11 @@
       <c r="E121" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>308</v>
       </c>
@@ -9022,8 +9374,11 @@
       <c r="E122" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>310</v>
       </c>
@@ -9039,8 +9394,11 @@
       <c r="E123" s="17">
         <v>19000</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>312</v>
       </c>
@@ -9056,8 +9414,11 @@
       <c r="E124" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>315</v>
       </c>
@@ -9073,8 +9434,11 @@
       <c r="E125" s="18">
         <v>51000</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>318</v>
       </c>
@@ -9090,8 +9454,11 @@
       <c r="E126" s="17">
         <v>56000</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>321</v>
       </c>
@@ -9107,8 +9474,11 @@
       <c r="E127" s="18">
         <v>57000</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>323</v>
       </c>
@@ -9124,8 +9494,11 @@
       <c r="E128" s="17">
         <v>64000</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>325</v>
       </c>
@@ -9141,8 +9514,11 @@
       <c r="E129" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>328</v>
       </c>
@@ -9158,8 +9534,11 @@
       <c r="E130" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>330</v>
       </c>
@@ -9175,8 +9554,11 @@
       <c r="E131" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>332</v>
       </c>
@@ -9192,8 +9574,11 @@
       <c r="E132" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>335</v>
       </c>
@@ -9209,8 +9594,11 @@
       <c r="E133" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>338</v>
       </c>
@@ -9226,8 +9614,11 @@
       <c r="E134" s="18">
         <v>75000</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>341</v>
       </c>
@@ -9243,8 +9634,11 @@
       <c r="E135" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>343</v>
       </c>
@@ -9260,8 +9654,11 @@
       <c r="E136" s="18">
         <v>13000</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>346</v>
       </c>
@@ -9277,8 +9674,11 @@
       <c r="E137" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>348</v>
       </c>
@@ -9294,8 +9694,11 @@
       <c r="E138" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>350</v>
       </c>
@@ -9311,8 +9714,11 @@
       <c r="E139" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>352</v>
       </c>
@@ -9328,8 +9734,11 @@
       <c r="E140" s="18">
         <v>13000</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>355</v>
       </c>
@@ -9345,8 +9754,11 @@
       <c r="E141" s="17">
         <v>14000</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>357</v>
       </c>
@@ -9362,8 +9774,11 @@
       <c r="E142" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>360</v>
       </c>
@@ -9379,8 +9794,11 @@
       <c r="E143" s="18">
         <v>51000</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>363</v>
       </c>
@@ -9396,8 +9814,11 @@
       <c r="E144" s="17">
         <v>53000</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>365</v>
       </c>
@@ -9413,8 +9834,11 @@
       <c r="E145" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>368</v>
       </c>
@@ -9430,8 +9854,11 @@
       <c r="E146" s="18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>371</v>
       </c>
@@ -9447,8 +9874,11 @@
       <c r="E147" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>373</v>
       </c>
@@ -9464,8 +9894,11 @@
       <c r="E148" s="18">
         <v>36000</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>376</v>
       </c>
@@ -9481,8 +9914,11 @@
       <c r="E149" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>379</v>
       </c>
@@ -9498,8 +9934,11 @@
       <c r="E150" s="18">
         <v>41000</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>381</v>
       </c>
@@ -9515,8 +9954,11 @@
       <c r="E151" s="18">
         <v>75000</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>384</v>
       </c>
@@ -9532,8 +9974,11 @@
       <c r="E152" s="18">
         <v>55000</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>387</v>
       </c>
@@ -9549,8 +9994,11 @@
       <c r="E153" s="18">
         <v>59000</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>390</v>
       </c>
@@ -9566,8 +10014,11 @@
       <c r="E154" s="17">
         <v>61000</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F154" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>392</v>
       </c>
@@ -9583,8 +10034,11 @@
       <c r="E155" s="17">
         <v>46000</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>395</v>
       </c>
@@ -9600,8 +10054,11 @@
       <c r="E156" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>397</v>
       </c>
@@ -9617,8 +10074,11 @@
       <c r="E157" s="18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>399</v>
       </c>
@@ -9634,8 +10094,11 @@
       <c r="E158" s="17">
         <v>72000</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>402</v>
       </c>
@@ -9651,8 +10114,11 @@
       <c r="E159" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>404</v>
       </c>
@@ -9668,8 +10134,11 @@
       <c r="E160" s="17">
         <v>57000</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>407</v>
       </c>
@@ -9685,8 +10154,11 @@
       <c r="E161" s="17">
         <v>59000</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>409</v>
       </c>
@@ -9702,8 +10174,11 @@
       <c r="E162" s="18">
         <v>66000</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>411</v>
       </c>
@@ -9719,8 +10194,11 @@
       <c r="E163" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>414</v>
       </c>
@@ -9736,8 +10214,11 @@
       <c r="E164" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>417</v>
       </c>
@@ -9753,8 +10234,11 @@
       <c r="E165" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>419</v>
       </c>
@@ -9770,8 +10254,11 @@
       <c r="E166" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>423</v>
       </c>
@@ -9787,8 +10274,11 @@
       <c r="E167" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F167" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>425</v>
       </c>
@@ -9804,8 +10294,11 @@
       <c r="E168" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>428</v>
       </c>
@@ -9821,8 +10314,11 @@
       <c r="E169" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F169" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>430</v>
       </c>
@@ -9838,8 +10334,11 @@
       <c r="E170" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F170" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>434</v>
       </c>
@@ -9855,8 +10354,11 @@
       <c r="E171" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F171" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>436</v>
       </c>
@@ -9872,8 +10374,11 @@
       <c r="E172" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>438</v>
       </c>
@@ -9889,8 +10394,11 @@
       <c r="E173" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>441</v>
       </c>
@@ -9906,8 +10414,11 @@
       <c r="E174" s="17">
         <v>3500</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>444</v>
       </c>
@@ -9923,8 +10434,11 @@
       <c r="E175" s="17">
         <v>3500</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>446</v>
       </c>
@@ -9940,8 +10454,11 @@
       <c r="E176" s="18">
         <v>4000</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>448</v>
       </c>
@@ -9957,8 +10474,11 @@
       <c r="E177" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>451</v>
       </c>
@@ -9974,8 +10494,11 @@
       <c r="E178" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>454</v>
       </c>
@@ -9991,8 +10514,11 @@
       <c r="E179" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F179" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>456</v>
       </c>
@@ -10008,8 +10534,11 @@
       <c r="E180" s="17">
         <v>59000</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>459</v>
       </c>
@@ -10025,8 +10554,11 @@
       <c r="E181" s="17">
         <v>157000</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F181" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>462</v>
       </c>
@@ -10042,8 +10574,11 @@
       <c r="E182" s="17">
         <v>155000</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>464</v>
       </c>
@@ -10059,8 +10594,11 @@
       <c r="E183" s="17">
         <v>64000</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>467</v>
       </c>
@@ -10076,8 +10614,11 @@
       <c r="E184" s="18">
         <v>105000</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>470</v>
       </c>
@@ -10093,8 +10634,11 @@
       <c r="E185" s="18">
         <v>97000</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>472</v>
       </c>
@@ -10110,8 +10654,11 @@
       <c r="E186" s="17">
         <v>160000</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F186" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>475</v>
       </c>
@@ -10127,8 +10674,11 @@
       <c r="E187" s="17">
         <v>58000</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>478</v>
       </c>
@@ -10144,8 +10694,11 @@
       <c r="E188" s="17">
         <v>51000</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>481</v>
       </c>
@@ -10161,8 +10714,11 @@
       <c r="E189" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>484</v>
       </c>
@@ -10178,8 +10734,11 @@
       <c r="E190" s="18">
         <v>48000</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F190" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>487</v>
       </c>
@@ -10195,8 +10754,11 @@
       <c r="E191" s="18">
         <v>94000</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F191" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>490</v>
       </c>
@@ -10212,8 +10774,11 @@
       <c r="E192" s="17">
         <v>97000</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F192" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>493</v>
       </c>
@@ -10229,8 +10794,11 @@
       <c r="E193" s="18">
         <v>130000</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F193" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>496</v>
       </c>
@@ -10246,8 +10814,11 @@
       <c r="E194" s="17">
         <v>135000</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>498</v>
       </c>
@@ -10263,8 +10834,11 @@
       <c r="E195" s="18">
         <v>140000</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>501</v>
       </c>
@@ -10280,8 +10854,11 @@
       <c r="E196" s="17">
         <v>58000</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>504</v>
       </c>
@@ -10297,8 +10874,11 @@
       <c r="E197" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>507</v>
       </c>
@@ -10314,8 +10894,11 @@
       <c r="E198" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F198" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>510</v>
       </c>
@@ -10331,8 +10914,11 @@
       <c r="E199" s="17">
         <v>32000</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F199" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>512</v>
       </c>
@@ -10348,8 +10934,11 @@
       <c r="E200" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F200" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>514</v>
       </c>
@@ -10365,8 +10954,11 @@
       <c r="E201" s="17">
         <v>51000</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F201" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>517</v>
       </c>
@@ -10382,8 +10974,11 @@
       <c r="E202" s="17">
         <v>43000</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F202" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>519</v>
       </c>
@@ -10399,8 +10994,11 @@
       <c r="E203" s="17">
         <v>83000</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F203" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>521</v>
       </c>
@@ -10416,8 +11014,11 @@
       <c r="E204" s="17">
         <v>48000</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F204" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>523</v>
       </c>
@@ -10433,8 +11034,11 @@
       <c r="E205" s="18">
         <v>94000</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F205" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>526</v>
       </c>
@@ -10450,8 +11054,11 @@
       <c r="E206" s="18">
         <v>140000</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F206" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>529</v>
       </c>
@@ -10467,8 +11074,11 @@
       <c r="E207" s="17">
         <v>57000</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F207" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>532</v>
       </c>
@@ -10484,8 +11094,11 @@
       <c r="E208" s="17">
         <v>59000</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F208" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>534</v>
       </c>
@@ -10501,8 +11114,11 @@
       <c r="E209" s="17">
         <v>60000</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F209" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>536</v>
       </c>
@@ -10518,8 +11134,11 @@
       <c r="E210" s="17">
         <v>77000</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F210" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>539</v>
       </c>
@@ -10535,8 +11154,11 @@
       <c r="E211" s="17">
         <v>40000</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F211" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>542</v>
       </c>
@@ -10552,8 +11174,11 @@
       <c r="E212" s="17">
         <v>124000</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F212" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>544</v>
       </c>
@@ -10569,8 +11194,11 @@
       <c r="E213" s="18">
         <v>44000</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F213" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>546</v>
       </c>
@@ -10586,8 +11214,11 @@
       <c r="E214" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F214" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>549</v>
       </c>
@@ -10603,8 +11234,11 @@
       <c r="E215" s="17">
         <v>42000</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F215" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>552</v>
       </c>
@@ -10620,8 +11254,11 @@
       <c r="E216" s="18">
         <v>83000</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F216" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>555</v>
       </c>
@@ -10637,8 +11274,11 @@
       <c r="E217" s="17">
         <v>57000</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F217" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>558</v>
       </c>
@@ -10654,8 +11294,11 @@
       <c r="E218" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F218" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>561</v>
       </c>
@@ -10671,8 +11314,11 @@
       <c r="E219" s="17">
         <v>59000</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F219" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>563</v>
       </c>
@@ -10688,8 +11334,11 @@
       <c r="E220" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F220" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>566</v>
       </c>
@@ -10705,8 +11354,11 @@
       <c r="E221" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F221" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>568</v>
       </c>
@@ -10722,8 +11374,11 @@
       <c r="E222" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F222" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>570</v>
       </c>
@@ -10739,8 +11394,11 @@
       <c r="E223" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F223" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>573</v>
       </c>
@@ -10756,8 +11414,11 @@
       <c r="E224" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F224" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>576</v>
       </c>
@@ -10773,8 +11434,11 @@
       <c r="E225" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F225" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>578</v>
       </c>
@@ -10790,8 +11454,11 @@
       <c r="E226" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F226" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>581</v>
       </c>
@@ -10807,8 +11474,11 @@
       <c r="E227" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F227" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>584</v>
       </c>
@@ -10824,8 +11494,11 @@
       <c r="E228" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F228" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
         <v>586</v>
       </c>
@@ -10841,8 +11514,11 @@
       <c r="E229" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F229" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
         <v>588</v>
       </c>
@@ -10858,8 +11534,11 @@
       <c r="E230" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F230" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>590</v>
       </c>
@@ -10875,8 +11554,11 @@
       <c r="E231" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F231" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>592</v>
       </c>
@@ -10892,8 +11574,11 @@
       <c r="E232" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F232" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>595</v>
       </c>
@@ -10909,8 +11594,11 @@
       <c r="E233" s="17">
         <v>2500</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F233" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>597</v>
       </c>
@@ -10926,8 +11614,11 @@
       <c r="E234" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F234" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>599</v>
       </c>
@@ -10943,8 +11634,11 @@
       <c r="E235" s="17">
         <v>70000</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F235" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>601</v>
       </c>
@@ -10960,8 +11654,11 @@
       <c r="E236" s="17">
         <v>68000</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F236" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>604</v>
       </c>
@@ -10977,8 +11674,11 @@
       <c r="E237" s="17">
         <v>72000</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F237" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>606</v>
       </c>
@@ -10994,8 +11694,11 @@
       <c r="E238" s="17">
         <v>94000</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F238" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
         <v>609</v>
       </c>
@@ -11011,8 +11714,11 @@
       <c r="E239" s="17">
         <v>55000</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F239" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>612</v>
       </c>
@@ -11028,8 +11734,11 @@
       <c r="E240" s="18">
         <v>66000</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F240" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
         <v>615</v>
       </c>
@@ -11045,8 +11754,11 @@
       <c r="E241" s="17">
         <v>105000</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F241" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>617</v>
       </c>
@@ -11062,8 +11774,11 @@
       <c r="E242" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F242" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>621</v>
       </c>
@@ -11079,8 +11794,11 @@
       <c r="E243" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F243" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>623</v>
       </c>
@@ -11096,8 +11814,11 @@
       <c r="E244" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F244" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>625</v>
       </c>
@@ -11113,8 +11834,11 @@
       <c r="E245" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F245" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>628</v>
       </c>
@@ -11130,8 +11854,11 @@
       <c r="E246" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F246" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>631</v>
       </c>
@@ -11147,8 +11874,11 @@
       <c r="E247" s="17">
         <v>55000</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F247" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>634</v>
       </c>
@@ -11164,8 +11894,11 @@
       <c r="E248" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F248" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>637</v>
       </c>
@@ -11181,8 +11914,11 @@
       <c r="E249" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F249" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>639</v>
       </c>
@@ -11198,8 +11934,11 @@
       <c r="E250" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F250" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
         <v>641</v>
       </c>
@@ -11215,8 +11954,11 @@
       <c r="E251" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F251" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>644</v>
       </c>
@@ -11232,8 +11974,11 @@
       <c r="E252" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F252" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
         <v>647</v>
       </c>
@@ -11249,8 +11994,11 @@
       <c r="E253" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F253" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>650</v>
       </c>
@@ -11266,8 +12014,11 @@
       <c r="E254" s="17">
         <v>23000</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F254" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
         <v>653</v>
       </c>
@@ -11283,8 +12034,11 @@
       <c r="E255" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F255" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
         <v>655</v>
       </c>
@@ -11300,8 +12054,11 @@
       <c r="E256" s="18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F256" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
         <v>657</v>
       </c>
@@ -11317,8 +12074,11 @@
       <c r="E257" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F257" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>659</v>
       </c>
@@ -11334,8 +12094,11 @@
       <c r="E258" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F258" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
         <v>661</v>
       </c>
@@ -11351,8 +12114,11 @@
       <c r="E259" s="17">
         <v>75000</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F259" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
         <v>664</v>
       </c>
@@ -11368,8 +12134,11 @@
       <c r="E260" s="17">
         <v>83000</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F260" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
         <v>666</v>
       </c>
@@ -11385,8 +12154,11 @@
       <c r="E261" s="17">
         <v>79000</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F261" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
         <v>668</v>
       </c>
@@ -11402,8 +12174,11 @@
       <c r="E262" s="17">
         <v>88000</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F262" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
         <v>670</v>
       </c>
@@ -11419,8 +12194,11 @@
       <c r="E263" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F263" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>674</v>
       </c>
@@ -11436,8 +12214,11 @@
       <c r="E264" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F264" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
         <v>677</v>
       </c>
@@ -11453,8 +12234,11 @@
       <c r="E265" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F265" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>680</v>
       </c>
@@ -11470,8 +12254,11 @@
       <c r="E266" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F266" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
         <v>682</v>
       </c>
@@ -11487,8 +12274,11 @@
       <c r="E267" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F267" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>684</v>
       </c>
@@ -11504,8 +12294,11 @@
       <c r="E268" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F268" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
         <v>687</v>
       </c>
@@ -11521,8 +12314,11 @@
       <c r="E269" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F269" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
         <v>689</v>
       </c>
@@ -11538,8 +12334,11 @@
       <c r="E270" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F270" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>692</v>
       </c>
@@ -11555,8 +12354,11 @@
       <c r="E271" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F271" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
         <v>694</v>
       </c>
@@ -11572,8 +12374,11 @@
       <c r="E272" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F272" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
         <v>696</v>
       </c>
@@ -11589,8 +12394,11 @@
       <c r="E273" s="17">
         <v>17000</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F273" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
         <v>699</v>
       </c>
@@ -11606,8 +12414,11 @@
       <c r="E274" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F274" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
         <v>701</v>
       </c>
@@ -11623,8 +12434,11 @@
       <c r="E275" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F275" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>704</v>
       </c>
@@ -11640,8 +12454,11 @@
       <c r="E276" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F276" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
         <v>706</v>
       </c>
@@ -11657,8 +12474,11 @@
       <c r="E277" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F277" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
         <v>708</v>
       </c>
@@ -11674,8 +12494,11 @@
       <c r="E278" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F278" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>710</v>
       </c>
@@ -11691,8 +12514,11 @@
       <c r="E279" s="17">
         <v>36000</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F279" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>712</v>
       </c>
@@ -11708,8 +12534,11 @@
       <c r="E280" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F280" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>715</v>
       </c>
@@ -11725,8 +12554,11 @@
       <c r="E281" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F281" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>718</v>
       </c>
@@ -11742,8 +12574,11 @@
       <c r="E282" s="17">
         <v>19000</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F282" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>720</v>
       </c>
@@ -11759,8 +12594,11 @@
       <c r="E283" s="17">
         <v>47000</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F283" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
         <v>723</v>
       </c>
@@ -11776,8 +12614,11 @@
       <c r="E284" s="17">
         <v>77000</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F284" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
         <v>726</v>
       </c>
@@ -11793,8 +12634,11 @@
       <c r="E285" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F285" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>729</v>
       </c>
@@ -11810,8 +12654,11 @@
       <c r="E286" s="18">
         <v>30000</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F286" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>732</v>
       </c>
@@ -11827,8 +12674,11 @@
       <c r="E287" s="18">
         <v>88000</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>735</v>
       </c>
@@ -11844,8 +12694,11 @@
       <c r="E288" s="17">
         <v>80000</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F288" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>737</v>
       </c>
@@ -11861,8 +12714,11 @@
       <c r="E289" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F289" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>740</v>
       </c>
@@ -11878,8 +12734,11 @@
       <c r="E290" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F290" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
         <v>743</v>
       </c>
@@ -11895,8 +12754,11 @@
       <c r="E291" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F291" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>746</v>
       </c>
@@ -11912,8 +12774,11 @@
       <c r="E292" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F292" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
         <v>749</v>
       </c>
@@ -11929,8 +12794,11 @@
       <c r="E293" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F293" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>752</v>
       </c>
@@ -11946,8 +12814,11 @@
       <c r="E294" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F294" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>755</v>
       </c>
@@ -11963,8 +12834,11 @@
       <c r="E295" s="18">
         <v>83000</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F295" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>758</v>
       </c>
@@ -11980,8 +12854,11 @@
       <c r="E296" s="17">
         <v>72000</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F296" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
         <v>760</v>
       </c>
@@ -11997,8 +12874,11 @@
       <c r="E297" s="17">
         <v>88000</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F297" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
         <v>762</v>
       </c>
@@ -12014,8 +12894,11 @@
       <c r="E298" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F298" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
         <v>764</v>
       </c>
@@ -12031,8 +12914,11 @@
       <c r="E299" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F299" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>767</v>
       </c>
@@ -12048,8 +12934,11 @@
       <c r="E300" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F300" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
         <v>769</v>
       </c>
@@ -12065,8 +12954,11 @@
       <c r="E301" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F301" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>772</v>
       </c>
@@ -12082,8 +12974,11 @@
       <c r="E302" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F302" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
         <v>774</v>
       </c>
@@ -12099,8 +12994,11 @@
       <c r="E303" s="18">
         <v>77000</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F303" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>777</v>
       </c>
@@ -12116,8 +13014,11 @@
       <c r="E304" s="18">
         <v>20000</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F304" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
         <v>780</v>
       </c>
@@ -12133,8 +13034,11 @@
       <c r="E305" s="17">
         <v>14000</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F305" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
         <v>782</v>
       </c>
@@ -12150,8 +13054,11 @@
       <c r="E306" s="17">
         <v>17000</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F306" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
         <v>784</v>
       </c>
@@ -12167,8 +13074,11 @@
       <c r="E307" s="17">
         <v>17000</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F307" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
         <v>786</v>
       </c>
@@ -12184,8 +13094,11 @@
       <c r="E308" s="18">
         <v>18000</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F308" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
         <v>788</v>
       </c>
@@ -12201,8 +13114,11 @@
       <c r="E309" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F309" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
         <v>790</v>
       </c>
@@ -12218,8 +13134,11 @@
       <c r="E310" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F310" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
         <v>793</v>
       </c>
@@ -12235,8 +13154,11 @@
       <c r="E311" s="17">
         <v>82000</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F311" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
         <v>797</v>
       </c>
@@ -12252,8 +13174,11 @@
       <c r="E312" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F312" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
         <v>800</v>
       </c>
@@ -12269,8 +13194,11 @@
       <c r="E313" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F313" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
         <v>803</v>
       </c>
@@ -12286,8 +13214,11 @@
       <c r="E314" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F314" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
         <v>806</v>
       </c>
@@ -12303,8 +13234,11 @@
       <c r="E315" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F315" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>808</v>
       </c>
@@ -12320,8 +13254,11 @@
       <c r="E316" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F316" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
         <v>811</v>
       </c>
@@ -12337,8 +13274,11 @@
       <c r="E317" s="17">
         <v>14000</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F317" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
         <v>813</v>
       </c>
@@ -12354,8 +13294,11 @@
       <c r="E318" s="17">
         <v>94000</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F318" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
         <v>816</v>
       </c>
@@ -12371,8 +13314,11 @@
       <c r="E319" s="17">
         <v>53000</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F319" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>819</v>
       </c>
@@ -12388,8 +13334,11 @@
       <c r="E320" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F320" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>822</v>
       </c>
@@ -12405,8 +13354,11 @@
       <c r="E321" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F321" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>825</v>
       </c>
@@ -12422,8 +13374,11 @@
       <c r="E322" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F322" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
         <v>828</v>
       </c>
@@ -12439,8 +13394,11 @@
       <c r="E323" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F323" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>830</v>
       </c>
@@ -12456,8 +13414,11 @@
       <c r="E324" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F324" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
         <v>832</v>
       </c>
@@ -12473,8 +13434,11 @@
       <c r="E325" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F325" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>834</v>
       </c>
@@ -12490,8 +13454,11 @@
       <c r="E326" s="17">
         <v>17000</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F326" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
         <v>837</v>
       </c>
@@ -12507,8 +13474,11 @@
       <c r="E327" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F327" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
         <v>839</v>
       </c>
@@ -12524,8 +13494,11 @@
       <c r="E328" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F328" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
         <v>842</v>
       </c>
@@ -12541,8 +13514,11 @@
       <c r="E329" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F329" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="s">
         <v>845</v>
       </c>
@@ -12558,8 +13534,11 @@
       <c r="E330" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F330" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="s">
         <v>847</v>
       </c>
@@ -12575,8 +13554,11 @@
       <c r="E331" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F331" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="s">
         <v>850</v>
       </c>
@@ -12592,8 +13574,11 @@
       <c r="E332" s="18">
         <v>31000</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F332" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="s">
         <v>853</v>
       </c>
@@ -12609,8 +13594,11 @@
       <c r="E333" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F333" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
         <v>855</v>
       </c>
@@ -12626,8 +13614,11 @@
       <c r="E334" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F334" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="s">
         <v>858</v>
       </c>
@@ -12643,8 +13634,11 @@
       <c r="E335" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F335" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
         <v>861</v>
       </c>
@@ -12660,8 +13654,11 @@
       <c r="E336" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F336" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="s">
         <v>864</v>
       </c>
@@ -12677,8 +13674,11 @@
       <c r="E337" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F337" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
         <v>867</v>
       </c>
@@ -12694,8 +13694,11 @@
       <c r="E338" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F338" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="s">
         <v>869</v>
       </c>
@@ -12711,8 +13714,11 @@
       <c r="E339" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F339" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="s">
         <v>872</v>
       </c>
@@ -12728,8 +13734,11 @@
       <c r="E340" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F340" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="s">
         <v>875</v>
       </c>
@@ -12745,8 +13754,11 @@
       <c r="E341" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F341" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="s">
         <v>878</v>
       </c>
@@ -12762,8 +13774,11 @@
       <c r="E342" s="17">
         <v>36000</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F342" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="s">
         <v>881</v>
       </c>
@@ -12779,8 +13794,11 @@
       <c r="E343" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F343" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="s">
         <v>883</v>
       </c>
@@ -12796,8 +13814,11 @@
       <c r="E344" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F344" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="s">
         <v>886</v>
       </c>
@@ -12813,8 +13834,11 @@
       <c r="E345" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F345" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
         <v>888</v>
       </c>
@@ -12830,8 +13854,11 @@
       <c r="E346" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F346" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="s">
         <v>891</v>
       </c>
@@ -12847,8 +13874,11 @@
       <c r="E347" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F347" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="s">
         <v>894</v>
       </c>
@@ -12864,8 +13894,11 @@
       <c r="E348" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F348" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="s">
         <v>897</v>
       </c>
@@ -12881,8 +13914,11 @@
       <c r="E349" s="17">
         <v>36000</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F349" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="s">
         <v>900</v>
       </c>
@@ -12898,8 +13934,11 @@
       <c r="E350" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F350" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="s">
         <v>903</v>
       </c>
@@ -12915,8 +13954,11 @@
       <c r="E351" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F351" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="s">
         <v>906</v>
       </c>
@@ -12932,8 +13974,11 @@
       <c r="E352" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F352" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="s">
         <v>909</v>
       </c>
@@ -12949,8 +13994,11 @@
       <c r="E353" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F353" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="s">
         <v>912</v>
       </c>
@@ -12966,8 +14014,11 @@
       <c r="E354" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F354" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="s">
         <v>915</v>
       </c>
@@ -12983,8 +14034,11 @@
       <c r="E355" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F355" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="s">
         <v>917</v>
       </c>
@@ -13000,8 +14054,11 @@
       <c r="E356" s="18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F356" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="s">
         <v>919</v>
       </c>
@@ -13017,8 +14074,11 @@
       <c r="E357" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F357" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="s">
         <v>921</v>
       </c>
@@ -13034,8 +14094,11 @@
       <c r="E358" s="17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F358" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="s">
         <v>924</v>
       </c>
@@ -13051,8 +14114,11 @@
       <c r="E359" s="17">
         <v>18000</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F359" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="s">
         <v>926</v>
       </c>
@@ -13068,8 +14134,11 @@
       <c r="E360" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F360" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="s">
         <v>929</v>
       </c>
@@ -13085,8 +14154,11 @@
       <c r="E361" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F361" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="s">
         <v>932</v>
       </c>
@@ -13102,8 +14174,11 @@
       <c r="E362" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F362" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="13" t="s">
         <v>934</v>
       </c>
@@ -13119,8 +14194,11 @@
       <c r="E363" s="17">
         <v>25000</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F363" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
         <v>937</v>
       </c>
@@ -13136,8 +14214,11 @@
       <c r="E364" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F364" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="s">
         <v>940</v>
       </c>
@@ -13153,8 +14234,11 @@
       <c r="E365" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F365" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="s">
         <v>943</v>
       </c>
@@ -13170,8 +14254,11 @@
       <c r="E366" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F366" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="s">
         <v>946</v>
       </c>
@@ -13187,8 +14274,11 @@
       <c r="E367" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F367" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="s">
         <v>949</v>
       </c>
@@ -13204,8 +14294,11 @@
       <c r="E368" s="18">
         <v>30000</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F368" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="s">
         <v>952</v>
       </c>
@@ -13221,8 +14314,11 @@
       <c r="E369" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F369" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="s">
         <v>954</v>
       </c>
@@ -13238,8 +14334,11 @@
       <c r="E370" s="18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F370" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="s">
         <v>956</v>
       </c>
@@ -13255,8 +14354,11 @@
       <c r="E371" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F371" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="s">
         <v>958</v>
       </c>
@@ -13272,8 +14374,11 @@
       <c r="E372" s="18">
         <v>26000</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F372" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
         <v>960</v>
       </c>
@@ -13289,8 +14394,11 @@
       <c r="E373" s="17">
         <v>27000</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F373" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="s">
         <v>962</v>
       </c>
@@ -13306,8 +14414,11 @@
       <c r="E374" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F374" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="s">
         <v>964</v>
       </c>
@@ -13323,8 +14434,11 @@
       <c r="E375" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F375" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
         <v>967</v>
       </c>
@@ -13340,8 +14454,11 @@
       <c r="E376" s="18">
         <v>48000</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F376" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="s">
         <v>970</v>
       </c>
@@ -13357,8 +14474,11 @@
       <c r="E377" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F377" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="s">
         <v>973</v>
       </c>
@@ -13374,8 +14494,11 @@
       <c r="E378" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F378" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="s">
         <v>976</v>
       </c>
@@ -13391,8 +14514,11 @@
       <c r="E379" s="18">
         <v>44000</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F379" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="s">
         <v>978</v>
       </c>
@@ -13408,8 +14534,11 @@
       <c r="E380" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F380" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="s">
         <v>981</v>
       </c>
@@ -13425,8 +14554,11 @@
       <c r="E381" s="18">
         <v>66000</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F381" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="s">
         <v>984</v>
       </c>
@@ -13442,8 +14574,11 @@
       <c r="E382" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F382" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="s">
         <v>987</v>
       </c>
@@ -13459,8 +14594,11 @@
       <c r="E383" s="17">
         <v>41000</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F383" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="s">
         <v>989</v>
       </c>
@@ -13476,8 +14614,11 @@
       <c r="E384" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F384" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="s">
         <v>992</v>
       </c>
@@ -13493,8 +14634,11 @@
       <c r="E385" s="17">
         <v>60000</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F385" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="s">
         <v>995</v>
       </c>
@@ -13510,8 +14654,11 @@
       <c r="E386" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F386" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="s">
         <v>998</v>
       </c>
@@ -13527,8 +14674,11 @@
       <c r="E387" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F387" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="s">
         <v>1001</v>
       </c>
@@ -13544,8 +14694,11 @@
       <c r="E388" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F388" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="s">
         <v>1003</v>
       </c>
@@ -13561,8 +14714,11 @@
       <c r="E389" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F389" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="s">
         <v>1005</v>
       </c>
@@ -13578,8 +14734,11 @@
       <c r="E390" s="17">
         <v>32000</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F390" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="s">
         <v>1007</v>
       </c>
@@ -13595,8 +14754,11 @@
       <c r="E391" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F391" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="s">
         <v>1010</v>
       </c>
@@ -13612,8 +14774,11 @@
       <c r="E392" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F392" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
         <v>1013</v>
       </c>
@@ -13629,8 +14794,11 @@
       <c r="E393" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F393" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="s">
         <v>1016</v>
       </c>
@@ -13646,8 +14814,11 @@
       <c r="E394" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F394" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="s">
         <v>1019</v>
       </c>
@@ -13663,8 +14834,11 @@
       <c r="E395" s="17">
         <v>37000</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F395" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="s">
         <v>1022</v>
       </c>
@@ -13680,8 +14854,11 @@
       <c r="E396" s="17">
         <v>35000</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F396" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="s">
         <v>1024</v>
       </c>
@@ -13697,8 +14874,11 @@
       <c r="E397" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F397" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="s">
         <v>1027</v>
       </c>
@@ -13714,8 +14894,11 @@
       <c r="E398" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F398" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="s">
         <v>1030</v>
       </c>
@@ -13731,8 +14914,11 @@
       <c r="E399" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F399" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
         <v>1032</v>
       </c>
@@ -13748,8 +14934,11 @@
       <c r="E400" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F400" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="s">
         <v>1035</v>
       </c>
@@ -13765,8 +14954,11 @@
       <c r="E401" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F401" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="s">
         <v>1038</v>
       </c>
@@ -13782,8 +14974,11 @@
       <c r="E402" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F402" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="s">
         <v>1041</v>
       </c>
@@ -13799,8 +14994,11 @@
       <c r="E403" s="17">
         <v>4500</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F403" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="s">
         <v>1043</v>
       </c>
@@ -13816,8 +15014,11 @@
       <c r="E404" s="17">
         <v>5000</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F404" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="s">
         <v>1045</v>
       </c>
@@ -13833,8 +15034,11 @@
       <c r="E405" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F405" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="s">
         <v>1047</v>
       </c>
@@ -13850,8 +15054,11 @@
       <c r="E406" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F406" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="s">
         <v>1050</v>
       </c>
@@ -13867,8 +15074,11 @@
       <c r="E407" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F407" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="s">
         <v>1053</v>
       </c>
@@ -13884,8 +15094,11 @@
       <c r="E408" s="18">
         <v>4500</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F408" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="s">
         <v>1055</v>
       </c>
@@ -13901,8 +15114,11 @@
       <c r="E409" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F409" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="s">
         <v>1058</v>
       </c>
@@ -13918,8 +15134,11 @@
       <c r="E410" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F410" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="s">
         <v>1060</v>
       </c>
@@ -13935,8 +15154,11 @@
       <c r="E411" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F411" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="s">
         <v>1062</v>
       </c>
@@ -13952,8 +15174,11 @@
       <c r="E412" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F412" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="s">
         <v>1064</v>
       </c>
@@ -13969,8 +15194,11 @@
       <c r="E413" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F413" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
         <v>1066</v>
       </c>
@@ -13986,8 +15214,11 @@
       <c r="E414" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F414" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="s">
         <v>1068</v>
       </c>
@@ -14003,8 +15234,11 @@
       <c r="E415" s="17">
         <v>9000</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F415" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="s">
         <v>1071</v>
       </c>
@@ -14020,8 +15254,11 @@
       <c r="E416" s="17">
         <v>4500</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F416" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
         <v>1074</v>
       </c>
@@ -14037,8 +15274,11 @@
       <c r="E417" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F417" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="s">
         <v>1077</v>
       </c>
@@ -14054,8 +15294,11 @@
       <c r="E418" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F418" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="s">
         <v>1079</v>
       </c>
@@ -14071,8 +15314,11 @@
       <c r="E419" s="17">
         <v>14000</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F419" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="s">
         <v>1082</v>
       </c>
@@ -14088,8 +15334,11 @@
       <c r="E420" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F420" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="s">
         <v>1085</v>
       </c>
@@ -14105,8 +15354,11 @@
       <c r="E421" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F421" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
         <v>1087</v>
       </c>
@@ -14122,8 +15374,11 @@
       <c r="E422" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F422" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="s">
         <v>1089</v>
       </c>
@@ -14139,8 +15394,11 @@
       <c r="E423" s="17">
         <v>3500</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F423" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="s">
         <v>1093</v>
       </c>
@@ -14156,8 +15414,11 @@
       <c r="E424" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F424" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="s">
         <v>1096</v>
       </c>
@@ -14173,8 +15434,11 @@
       <c r="E425" s="18">
         <v>4500</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F425" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="s">
         <v>1098</v>
       </c>
@@ -14190,8 +15454,11 @@
       <c r="E426" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F426" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
         <v>1101</v>
       </c>
@@ -14207,8 +15474,11 @@
       <c r="E427" s="17">
         <v>3500</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F427" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
         <v>1104</v>
       </c>
@@ -14224,8 +15494,11 @@
       <c r="E428" s="17">
         <v>3500</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F428" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="s">
         <v>1106</v>
       </c>
@@ -14241,8 +15514,11 @@
       <c r="E429" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F429" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="s">
         <v>1108</v>
       </c>
@@ -14258,8 +15534,11 @@
       <c r="E430" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F430" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="s">
         <v>1110</v>
       </c>
@@ -14275,8 +15554,11 @@
       <c r="E431" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F431" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="s">
         <v>1113</v>
       </c>
@@ -14292,8 +15574,11 @@
       <c r="E432" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F432" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="s">
         <v>1116</v>
       </c>
@@ -14309,8 +15594,11 @@
       <c r="E433" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F433" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="s">
         <v>1119</v>
       </c>
@@ -14326,8 +15614,11 @@
       <c r="E434" s="17">
         <v>15000</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F434" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="s">
         <v>1122</v>
       </c>
@@ -14343,8 +15634,11 @@
       <c r="E435" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F435" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="s">
         <v>1125</v>
       </c>
@@ -14360,8 +15654,11 @@
       <c r="E436" s="17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F436" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="s">
         <v>1128</v>
       </c>
@@ -14377,8 +15674,11 @@
       <c r="E437" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F437" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="s">
         <v>1131</v>
       </c>
@@ -14394,8 +15694,11 @@
       <c r="E438" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F438" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="s">
         <v>1134</v>
       </c>
@@ -14411,8 +15714,11 @@
       <c r="E439" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F439" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="s">
         <v>1136</v>
       </c>
@@ -14428,8 +15734,11 @@
       <c r="E440" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F440" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="s">
         <v>1139</v>
       </c>
@@ -14445,8 +15754,11 @@
       <c r="E441" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F441" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="s">
         <v>1142</v>
       </c>
@@ -14462,8 +15774,11 @@
       <c r="E442" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F442" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="s">
         <v>1145</v>
       </c>
@@ -14479,8 +15794,11 @@
       <c r="E443" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F443" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="s">
         <v>1147</v>
       </c>
@@ -14496,8 +15814,11 @@
       <c r="E444" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F444" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="s">
         <v>1149</v>
       </c>
@@ -14513,8 +15834,11 @@
       <c r="E445" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F445" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="s">
         <v>1152</v>
       </c>
@@ -14530,8 +15854,11 @@
       <c r="E446" s="17">
         <v>26000</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F446" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="s">
         <v>1155</v>
       </c>
@@ -14547,8 +15874,11 @@
       <c r="E447" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F447" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="s">
         <v>1157</v>
       </c>
@@ -14564,8 +15894,11 @@
       <c r="E448" s="17">
         <v>24000</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F448" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="s">
         <v>1159</v>
       </c>
@@ -14581,8 +15914,11 @@
       <c r="E449" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F449" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="s">
         <v>1162</v>
       </c>
@@ -14598,8 +15934,11 @@
       <c r="E450" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F450" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="s">
         <v>1165</v>
       </c>
@@ -14615,8 +15954,11 @@
       <c r="E451" s="17">
         <v>4500</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F451" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="s">
         <v>1168</v>
       </c>
@@ -14632,8 +15974,11 @@
       <c r="E452" s="17">
         <v>4500</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F452" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="s">
         <v>1171</v>
       </c>
@@ -14649,8 +15994,11 @@
       <c r="E453" s="17">
         <v>7500</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F453" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="s">
         <v>1174</v>
       </c>
@@ -14666,8 +16014,11 @@
       <c r="E454" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F454" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="s">
         <v>1177</v>
       </c>
@@ -14683,8 +16034,11 @@
       <c r="E455" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F455" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="s">
         <v>1180</v>
       </c>
@@ -14700,8 +16054,11 @@
       <c r="E456" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F456" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="s">
         <v>1183</v>
       </c>
@@ -14717,8 +16074,11 @@
       <c r="E457" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F457" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="s">
         <v>1186</v>
       </c>
@@ -14734,8 +16094,11 @@
       <c r="E458" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F458" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="13" t="s">
         <v>1189</v>
       </c>
@@ -14751,8 +16114,11 @@
       <c r="E459" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F459" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="s">
         <v>1191</v>
       </c>
@@ -14768,8 +16134,11 @@
       <c r="E460" s="18">
         <v>12000</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F460" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="13" t="s">
         <v>1194</v>
       </c>
@@ -14785,8 +16154,11 @@
       <c r="E461" s="18">
         <v>13000</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F461" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="13" t="s">
         <v>1196</v>
       </c>
@@ -14802,8 +16174,11 @@
       <c r="E462" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F462" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="s">
         <v>1198</v>
       </c>
@@ -14819,8 +16194,11 @@
       <c r="E463" s="18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F463" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="13" t="s">
         <v>1200</v>
       </c>
@@ -14836,8 +16214,11 @@
       <c r="E464" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F464" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="13" t="s">
         <v>1203</v>
       </c>
@@ -14853,8 +16234,11 @@
       <c r="E465" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F465" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="13" t="s">
         <v>1205</v>
       </c>
@@ -14870,8 +16254,11 @@
       <c r="E466" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F466" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="13" t="s">
         <v>1207</v>
       </c>
@@ -14887,8 +16274,11 @@
       <c r="E467" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F467" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="13" t="s">
         <v>1209</v>
       </c>
@@ -14904,8 +16294,11 @@
       <c r="E468" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F468" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="13" t="s">
         <v>1212</v>
       </c>
@@ -14921,8 +16314,11 @@
       <c r="E469" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F469" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="13" t="s">
         <v>1215</v>
       </c>
@@ -14938,8 +16334,11 @@
       <c r="E470" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F470" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="13" t="s">
         <v>1217</v>
       </c>
@@ -14955,8 +16354,11 @@
       <c r="E471" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F471" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="s">
         <v>1220</v>
       </c>
@@ -14972,8 +16374,11 @@
       <c r="E472" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F472" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="13" t="s">
         <v>1223</v>
       </c>
@@ -14989,8 +16394,11 @@
       <c r="E473" s="18">
         <v>31000</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F473" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="13" t="s">
         <v>1226</v>
       </c>
@@ -15006,8 +16414,11 @@
       <c r="E474" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F474" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="13" t="s">
         <v>1229</v>
       </c>
@@ -15023,8 +16434,11 @@
       <c r="E475" s="18">
         <v>30000</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F475" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="13" t="s">
         <v>1231</v>
       </c>
@@ -15040,8 +16454,11 @@
       <c r="E476" s="18">
         <v>27000</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F476" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="13" t="s">
         <v>1233</v>
       </c>
@@ -15057,8 +16474,11 @@
       <c r="E477" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F477" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="13" t="s">
         <v>1235</v>
       </c>
@@ -15074,8 +16494,11 @@
       <c r="E478" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F478" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="13" t="s">
         <v>1238</v>
       </c>
@@ -15091,8 +16514,11 @@
       <c r="E479" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F479" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="13" t="s">
         <v>1240</v>
       </c>
@@ -15108,8 +16534,11 @@
       <c r="E480" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F480" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="13" t="s">
         <v>1243</v>
       </c>
@@ -15125,8 +16554,11 @@
       <c r="E481" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F481" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="13" t="s">
         <v>1245</v>
       </c>
@@ -15142,8 +16574,11 @@
       <c r="E482" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F482" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="13" t="s">
         <v>1248</v>
       </c>
@@ -15159,8 +16594,11 @@
       <c r="E483" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F483" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="13" t="s">
         <v>1251</v>
       </c>
@@ -15176,8 +16614,11 @@
       <c r="E484" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F484" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="13" t="s">
         <v>1253</v>
       </c>
@@ -15193,8 +16634,11 @@
       <c r="E485" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F485" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="13" t="s">
         <v>1256</v>
       </c>
@@ -15210,8 +16654,11 @@
       <c r="E486" s="18">
         <v>15000</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F486" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="s">
         <v>1259</v>
       </c>
@@ -15227,8 +16674,11 @@
       <c r="E487" s="18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F487" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="13" t="s">
         <v>1261</v>
       </c>
@@ -15244,8 +16694,11 @@
       <c r="E488" s="17">
         <v>34000</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F488" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="13" t="s">
         <v>1264</v>
       </c>
@@ -15261,8 +16714,11 @@
       <c r="E489" s="18">
         <v>33000</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F489" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="13" t="s">
         <v>1266</v>
       </c>
@@ -15278,8 +16734,11 @@
       <c r="E490" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F490" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="13" t="s">
         <v>1269</v>
       </c>
@@ -15295,8 +16754,11 @@
       <c r="E491" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F491" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="13" t="s">
         <v>1271</v>
       </c>
@@ -15312,8 +16774,11 @@
       <c r="E492" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F492" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="s">
         <v>1274</v>
       </c>
@@ -15329,8 +16794,11 @@
       <c r="E493" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F493" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="13" t="s">
         <v>1277</v>
       </c>
@@ -15346,8 +16814,11 @@
       <c r="E494" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F494" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="13" t="s">
         <v>1280</v>
       </c>
@@ -15363,8 +16834,11 @@
       <c r="E495" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F495" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="s">
         <v>1282</v>
       </c>
@@ -15380,8 +16854,11 @@
       <c r="E496" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F496" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="13" t="s">
         <v>1285</v>
       </c>
@@ -15397,8 +16874,11 @@
       <c r="E497" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F497" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="s">
         <v>1287</v>
       </c>
@@ -15414,8 +16894,11 @@
       <c r="E498" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F498" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="s">
         <v>1290</v>
       </c>
@@ -15431,8 +16914,11 @@
       <c r="E499" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F499" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="13" t="s">
         <v>1293</v>
       </c>
@@ -15448,8 +16934,11 @@
       <c r="E500" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F500" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="13" t="s">
         <v>1295</v>
       </c>
@@ -15465,8 +16954,11 @@
       <c r="E501" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F501" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="13" t="s">
         <v>1298</v>
       </c>
@@ -15482,8 +16974,11 @@
       <c r="E502" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F502" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="13" t="s">
         <v>1301</v>
       </c>
@@ -15499,8 +16994,11 @@
       <c r="E503" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F503" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="13" t="s">
         <v>1303</v>
       </c>
@@ -15516,8 +17014,11 @@
       <c r="E504" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F504" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="13" t="s">
         <v>1305</v>
       </c>
@@ -15533,8 +17034,11 @@
       <c r="E505" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F505" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="13" t="s">
         <v>1307</v>
       </c>
@@ -15550,8 +17054,11 @@
       <c r="E506" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F506" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="13" t="s">
         <v>1308</v>
       </c>
@@ -15567,8 +17074,11 @@
       <c r="E507" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F507" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="s">
         <v>1311</v>
       </c>
@@ -15584,8 +17094,11 @@
       <c r="E508" s="17">
         <v>40000</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F508" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="13" t="s">
         <v>1313</v>
       </c>
@@ -15601,8 +17114,11 @@
       <c r="E509" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F509" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="13" t="s">
         <v>1315</v>
       </c>
@@ -15618,8 +17134,11 @@
       <c r="E510" s="18">
         <v>27000</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F510" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="s">
         <v>1317</v>
       </c>
@@ -15635,8 +17154,11 @@
       <c r="E511" s="17">
         <v>31000</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F511" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="13" t="s">
         <v>1320</v>
       </c>
@@ -15652,8 +17174,11 @@
       <c r="E512" s="18">
         <v>29000</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F512" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="13" t="s">
         <v>1323</v>
       </c>
@@ -15669,8 +17194,11 @@
       <c r="E513" s="18">
         <v>26000</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F513" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="13" t="s">
         <v>1325</v>
       </c>
@@ -15686,8 +17214,11 @@
       <c r="E514" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F514" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="13" t="s">
         <v>1327</v>
       </c>
@@ -15703,8 +17234,11 @@
       <c r="E515" s="18">
         <v>5000</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F515" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="13" t="s">
         <v>1330</v>
       </c>
@@ -15720,8 +17254,11 @@
       <c r="E516" s="17">
         <v>37000</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F516" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="13" t="s">
         <v>1333</v>
       </c>
@@ -15737,8 +17274,11 @@
       <c r="E517" s="17">
         <v>36000</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F517" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="13" t="s">
         <v>1335</v>
       </c>
@@ -15754,8 +17294,11 @@
       <c r="E518" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F518" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="13" t="s">
         <v>1337</v>
       </c>
@@ -15771,8 +17314,11 @@
       <c r="E519" s="17">
         <v>7000</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F519" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="13" t="s">
         <v>1340</v>
       </c>
@@ -15788,8 +17334,11 @@
       <c r="E520" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F520" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="13" t="s">
         <v>1342</v>
       </c>
@@ -15805,8 +17354,11 @@
       <c r="E521" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F521" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="13" t="s">
         <v>1344</v>
       </c>
@@ -15822,8 +17374,11 @@
       <c r="E522" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F522" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="13" t="s">
         <v>1346</v>
       </c>
@@ -15839,8 +17394,11 @@
       <c r="E523" s="18">
         <v>22000</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F523" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="13" t="s">
         <v>1349</v>
       </c>
@@ -15856,8 +17414,11 @@
       <c r="E524" s="18">
         <v>19000</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F524" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="13" t="s">
         <v>1352</v>
       </c>
@@ -15873,8 +17434,11 @@
       <c r="E525" s="18">
         <v>40000</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F525" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="13" t="s">
         <v>1356</v>
       </c>
@@ -15890,8 +17454,11 @@
       <c r="E526" s="18">
         <v>26000</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F526" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="13" t="s">
         <v>1359</v>
       </c>
@@ -15907,8 +17474,11 @@
       <c r="E527" s="18">
         <v>15000</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F527" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="13" t="s">
         <v>1361</v>
       </c>
@@ -15924,8 +17494,11 @@
       <c r="E528" s="18">
         <v>33000</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F528" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="13" t="s">
         <v>1363</v>
       </c>
@@ -15941,8 +17514,11 @@
       <c r="E529" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F529" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="13" t="s">
         <v>1365</v>
       </c>
@@ -15958,8 +17534,11 @@
       <c r="E530" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F530" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="13" t="s">
         <v>1368</v>
       </c>
@@ -15975,8 +17554,11 @@
       <c r="E531" s="17">
         <v>40000</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F531" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="13" t="s">
         <v>1371</v>
       </c>
@@ -15992,8 +17574,11 @@
       <c r="E532" s="18">
         <v>51000</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F532" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="13" t="s">
         <v>1374</v>
       </c>
@@ -16009,8 +17594,11 @@
       <c r="E533" s="17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F533" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="13" t="s">
         <v>1377</v>
       </c>
@@ -16026,8 +17614,11 @@
       <c r="E534" s="17">
         <v>6500</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F534" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="13" t="s">
         <v>1379</v>
       </c>
@@ -16043,8 +17634,11 @@
       <c r="E535" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F535" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="13" t="s">
         <v>1382</v>
       </c>
@@ -16060,8 +17654,11 @@
       <c r="E536" s="18">
         <v>6000</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F536" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="13" t="s">
         <v>1385</v>
       </c>
@@ -16077,8 +17674,11 @@
       <c r="E537" s="18">
         <v>11000</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F537" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="13" t="s">
         <v>1388</v>
       </c>
@@ -16094,8 +17694,11 @@
       <c r="E538" s="17">
         <v>23000</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F538" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="13" t="s">
         <v>1391</v>
       </c>
@@ -16111,8 +17714,11 @@
       <c r="E539" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F539" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="13" t="s">
         <v>1393</v>
       </c>
@@ -16128,8 +17734,11 @@
       <c r="E540" s="18">
         <v>21000</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F540" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="13" t="s">
         <v>1396</v>
       </c>
@@ -16145,8 +17754,11 @@
       <c r="E541" s="18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F541" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="13" t="s">
         <v>1399</v>
       </c>
@@ -16162,8 +17774,11 @@
       <c r="E542" s="18">
         <v>20000</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F542" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="13" t="s">
         <v>1402</v>
       </c>
@@ -16179,8 +17794,11 @@
       <c r="E543" s="18">
         <v>21000</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F543" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="13" t="s">
         <v>1405</v>
       </c>
@@ -16196,8 +17814,11 @@
       <c r="E544" s="18">
         <v>41000</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F544" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="13" t="s">
         <v>1408</v>
       </c>
@@ -16213,8 +17834,11 @@
       <c r="E545" s="18">
         <v>5500</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F545" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="13" t="s">
         <v>1411</v>
       </c>
@@ -16230,8 +17854,11 @@
       <c r="E546" s="18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F546" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="13" t="s">
         <v>1414</v>
       </c>
@@ -16247,8 +17874,11 @@
       <c r="E547" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F547" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="13" t="s">
         <v>1417</v>
       </c>
@@ -16264,8 +17894,11 @@
       <c r="E548" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F548" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="13" t="s">
         <v>1420</v>
       </c>
@@ -16281,8 +17914,11 @@
       <c r="E549" s="18">
         <v>44000</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F549" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="13" t="s">
         <v>1423</v>
       </c>
@@ -16298,8 +17934,11 @@
       <c r="E550" s="18">
         <v>41000</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F550" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="13" t="s">
         <v>1426</v>
       </c>
@@ -16315,8 +17954,11 @@
       <c r="E551" s="18">
         <v>31000</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F551" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="13" t="s">
         <v>1429</v>
       </c>
@@ -16332,8 +17974,11 @@
       <c r="E552" s="18">
         <v>27000</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F552" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="13" t="s">
         <v>1432</v>
       </c>
@@ -16349,8 +17994,11 @@
       <c r="E553" s="17">
         <v>41000</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F553" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="13" t="s">
         <v>1435</v>
       </c>
@@ -16366,8 +18014,11 @@
       <c r="E554" s="18">
         <v>40000</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F554" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="13" t="s">
         <v>1437</v>
       </c>
@@ -16383,8 +18034,11 @@
       <c r="E555" s="17">
         <v>42000</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F555" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="13" t="s">
         <v>1440</v>
       </c>
@@ -16400,8 +18054,11 @@
       <c r="E556" s="18">
         <v>39000</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F556" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="13" t="s">
         <v>1442</v>
       </c>
@@ -16417,8 +18074,11 @@
       <c r="E557" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F557" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="13" t="s">
         <v>1445</v>
       </c>
@@ -16434,8 +18094,11 @@
       <c r="E558" s="17">
         <v>36000</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F558" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="13" t="s">
         <v>1447</v>
       </c>
@@ -16451,8 +18114,11 @@
       <c r="E559" s="18">
         <v>35000</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F559" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="13" t="s">
         <v>1449</v>
       </c>
@@ -16468,8 +18134,11 @@
       <c r="E560" s="17">
         <v>41000</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F560" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="13" t="s">
         <v>1451</v>
       </c>
@@ -16485,8 +18154,11 @@
       <c r="E561" s="18">
         <v>124000</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F561" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="13" t="s">
         <v>1454</v>
       </c>
@@ -16502,8 +18174,11 @@
       <c r="E562" s="18">
         <v>140000</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F562" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="13" t="s">
         <v>1457</v>
       </c>
@@ -16519,8 +18194,11 @@
       <c r="E563" s="18">
         <v>115000</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F563" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="13" t="s">
         <v>1459</v>
       </c>
@@ -16536,8 +18214,11 @@
       <c r="E564" s="18">
         <v>105000</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F564" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="13" t="s">
         <v>1461</v>
       </c>
@@ -16553,8 +18234,11 @@
       <c r="E565" s="18">
         <v>150000</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F565" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="13" t="s">
         <v>1463</v>
       </c>
@@ -16570,8 +18254,11 @@
       <c r="E566" s="17">
         <v>130000</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F566" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="13" t="s">
         <v>1465</v>
       </c>
@@ -16587,8 +18274,11 @@
       <c r="E567" s="18">
         <v>58000</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F567" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="13" t="s">
         <v>1468</v>
       </c>
@@ -16604,8 +18294,11 @@
       <c r="E568" s="18">
         <v>57000</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F568" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="13" t="s">
         <v>1471</v>
       </c>
@@ -16621,8 +18314,11 @@
       <c r="E569" s="18">
         <v>55000</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F569" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="13" t="s">
         <v>1473</v>
       </c>
@@ -16638,8 +18334,11 @@
       <c r="E570" s="17">
         <v>60000</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F570" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="13" t="s">
         <v>1476</v>
       </c>
@@ -16655,8 +18354,11 @@
       <c r="E571" s="18">
         <v>62000</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F571" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="13" t="s">
         <v>1478</v>
       </c>
@@ -16672,8 +18374,11 @@
       <c r="E572" s="17">
         <v>155000</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F572" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="13" t="s">
         <v>1481</v>
       </c>
@@ -16689,8 +18394,11 @@
       <c r="E573" s="17">
         <v>150000</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F573" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="13" t="s">
         <v>1483</v>
       </c>
@@ -16706,8 +18414,11 @@
       <c r="E574" s="18">
         <v>70000</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F574" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="13" t="s">
         <v>1485</v>
       </c>
@@ -16723,8 +18434,11 @@
       <c r="E575" s="18">
         <v>63000</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F575" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="13" t="s">
         <v>1488</v>
       </c>
@@ -16740,8 +18454,11 @@
       <c r="E576" s="18">
         <v>55000</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F576" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="13" t="s">
         <v>1490</v>
       </c>
@@ -16757,8 +18474,11 @@
       <c r="E577" s="18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F577" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="13" t="s">
         <v>1492</v>
       </c>
@@ -16774,8 +18494,11 @@
       <c r="E578" s="17">
         <v>60000</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F578" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="13" t="s">
         <v>1495</v>
       </c>
@@ -16791,8 +18514,11 @@
       <c r="E579" s="18">
         <v>158000</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F579" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="13" t="s">
         <v>1498</v>
       </c>
@@ -16808,8 +18534,11 @@
       <c r="E580" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F580" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="13" t="s">
         <v>1501</v>
       </c>
@@ -16825,8 +18554,11 @@
       <c r="E581" s="18">
         <v>42000</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F581" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="13" t="s">
         <v>1504</v>
       </c>
@@ -16842,8 +18574,11 @@
       <c r="E582" s="18">
         <v>44000</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F582" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="13" t="s">
         <v>1506</v>
       </c>
@@ -16859,8 +18594,11 @@
       <c r="E583" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F583" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="13" t="s">
         <v>1509</v>
       </c>
@@ -16876,8 +18614,11 @@
       <c r="E584" s="17">
         <v>8000</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F584" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="13" t="s">
         <v>1511</v>
       </c>
@@ -16893,8 +18634,11 @@
       <c r="E585" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F585" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="13" t="s">
         <v>1513</v>
       </c>
@@ -16910,8 +18654,11 @@
       <c r="E586" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F586" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="13" t="s">
         <v>1515</v>
       </c>
@@ -16927,8 +18674,11 @@
       <c r="E587" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F587" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="13" t="s">
         <v>1517</v>
       </c>
@@ -16944,8 +18694,11 @@
       <c r="E588" s="18">
         <v>8000</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F588" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="13" t="s">
         <v>1520</v>
       </c>
@@ -16961,8 +18714,11 @@
       <c r="E589" s="18">
         <v>21000</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F589" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="13" t="s">
         <v>1523</v>
       </c>
@@ -16978,8 +18734,11 @@
       <c r="E590" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F590" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="13" t="s">
         <v>1526</v>
       </c>
@@ -16995,8 +18754,11 @@
       <c r="E591" s="18">
         <v>33000</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F591" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="13" t="s">
         <v>1527</v>
       </c>
@@ -17012,8 +18774,11 @@
       <c r="E592" s="17">
         <v>119000</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F592" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="13" t="s">
         <v>1530</v>
       </c>
@@ -17029,8 +18794,11 @@
       <c r="E593" s="17">
         <v>115000</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F593" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="13" t="s">
         <v>1532</v>
       </c>
@@ -17046,8 +18814,11 @@
       <c r="E594" s="18">
         <v>110000</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F594" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="13" t="s">
         <v>1534</v>
       </c>
@@ -17063,8 +18834,11 @@
       <c r="E595" s="18">
         <v>111000</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F595" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="13" t="s">
         <v>1536</v>
       </c>
@@ -17080,8 +18854,11 @@
       <c r="E596" s="18">
         <v>103000</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F596" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="13" t="s">
         <v>1539</v>
       </c>
@@ -17097,8 +18874,11 @@
       <c r="E597" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F597" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="13" t="s">
         <v>1542</v>
       </c>
@@ -17114,8 +18894,11 @@
       <c r="E598" s="17">
         <v>39000</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F598" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="13" t="s">
         <v>1545</v>
       </c>
@@ -17131,8 +18914,11 @@
       <c r="E599" s="17">
         <v>44000</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F599" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="13" t="s">
         <v>1548</v>
       </c>
@@ -17148,8 +18934,11 @@
       <c r="E600" s="18">
         <v>42000</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F600" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="13" t="s">
         <v>1549</v>
       </c>
@@ -17165,8 +18954,11 @@
       <c r="E601" s="18">
         <v>47000</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F601" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="13" t="s">
         <v>1551</v>
       </c>
@@ -17182,8 +18974,11 @@
       <c r="E602" s="18">
         <v>43000</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F602" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="13" t="s">
         <v>1553</v>
       </c>
@@ -17199,8 +18994,11 @@
       <c r="E603" s="18">
         <v>46000</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F603" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="13" t="s">
         <v>1555</v>
       </c>
@@ -17216,8 +19014,11 @@
       <c r="E604" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F604" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="13" t="s">
         <v>1558</v>
       </c>
@@ -17233,8 +19034,11 @@
       <c r="E605" s="18">
         <v>13000</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F605" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="13" t="s">
         <v>1562</v>
       </c>
@@ -17250,8 +19054,11 @@
       <c r="E606" s="17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F606" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="13" t="s">
         <v>1564</v>
       </c>
@@ -17267,8 +19074,11 @@
       <c r="E607" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F607" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="13" t="s">
         <v>1566</v>
       </c>
@@ -17284,8 +19094,11 @@
       <c r="E608" s="18">
         <v>15000</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F608" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="13" t="s">
         <v>1568</v>
       </c>
@@ -17301,8 +19114,11 @@
       <c r="E609" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F609" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="13" t="s">
         <v>1570</v>
       </c>
@@ -17318,8 +19134,11 @@
       <c r="E610" s="17">
         <v>5000</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F610" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="13" t="s">
         <v>1573</v>
       </c>
@@ -17335,8 +19154,11 @@
       <c r="E611" s="18">
         <v>4000</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F611" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="13" t="s">
         <v>1575</v>
       </c>
@@ -17352,8 +19174,11 @@
       <c r="E612" s="18">
         <v>5000</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F612" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="13" t="s">
         <v>1577</v>
       </c>
@@ -17369,8 +19194,11 @@
       <c r="E613" s="17">
         <v>29000</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F613" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="13" t="s">
         <v>1580</v>
       </c>
@@ -17386,8 +19214,11 @@
       <c r="E614" s="18">
         <v>27000</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F614" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="13" t="s">
         <v>1582</v>
       </c>
@@ -17403,8 +19234,11 @@
       <c r="E615" s="18">
         <v>26000</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F615" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="13" t="s">
         <v>1584</v>
       </c>
@@ -17420,8 +19254,11 @@
       <c r="E616" s="18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F616" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="13" t="s">
         <v>1586</v>
       </c>
@@ -17437,8 +19274,11 @@
       <c r="E617" s="18">
         <v>25000</v>
       </c>
-    </row>
-    <row r="618" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F617" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="13" t="s">
         <v>1588</v>
       </c>
@@ -17454,8 +19294,11 @@
       <c r="E618" s="17">
         <v>13000</v>
       </c>
-    </row>
-    <row r="619" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F618" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="13" t="s">
         <v>1591</v>
       </c>
@@ -17471,8 +19314,11 @@
       <c r="E619" s="18">
         <v>14000</v>
       </c>
-    </row>
-    <row r="620" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F619" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="13" t="s">
         <v>1593</v>
       </c>
@@ -17488,8 +19334,11 @@
       <c r="E620" s="17">
         <v>19000</v>
       </c>
-    </row>
-    <row r="621" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F620" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="13" t="s">
         <v>1596</v>
       </c>
@@ -17505,8 +19354,11 @@
       <c r="E621" s="17">
         <v>50000</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F621" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="13" t="s">
         <v>1599</v>
       </c>
@@ -17522,8 +19374,11 @@
       <c r="E622" s="17">
         <v>42000</v>
       </c>
-    </row>
-    <row r="623" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F622" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="13" t="s">
         <v>1602</v>
       </c>
@@ -17539,8 +19394,11 @@
       <c r="E623" s="17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F623" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="13" t="s">
         <v>1605</v>
       </c>
@@ -17556,8 +19414,11 @@
       <c r="E624" s="17">
         <v>33000</v>
       </c>
-    </row>
-    <row r="625" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F624" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="13" t="s">
         <v>1608</v>
       </c>
@@ -17573,8 +19434,11 @@
       <c r="E625" s="17">
         <v>99000</v>
       </c>
-    </row>
-    <row r="626" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F625" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="13" t="s">
         <v>1611</v>
       </c>
@@ -17590,8 +19454,11 @@
       <c r="E626" s="17">
         <v>88000</v>
       </c>
-    </row>
-    <row r="627" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F626" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="13" t="s">
         <v>1613</v>
       </c>
@@ -17607,8 +19474,11 @@
       <c r="E627" s="17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="628" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F627" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="13" t="s">
         <v>1616</v>
       </c>
@@ -17624,8 +19494,11 @@
       <c r="E628" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="629" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F628" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="13" t="s">
         <v>1618</v>
       </c>
@@ -17641,8 +19514,11 @@
       <c r="E629" s="18">
         <v>9000</v>
       </c>
-    </row>
-    <row r="630" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F629" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="13" t="s">
         <v>1620</v>
       </c>
@@ -17658,8 +19534,11 @@
       <c r="E630" s="18">
         <v>18000</v>
       </c>
-    </row>
-    <row r="631" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F630" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="13" t="s">
         <v>1623</v>
       </c>
@@ -17675,8 +19554,11 @@
       <c r="E631" s="18">
         <v>41000</v>
       </c>
-    </row>
-    <row r="632" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F631" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="13" t="s">
         <v>1626</v>
       </c>
@@ -17692,8 +19574,11 @@
       <c r="E632" s="17">
         <v>41000</v>
       </c>
-    </row>
-    <row r="633" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F632" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="13" t="s">
         <v>1628</v>
       </c>
@@ -17709,8 +19594,11 @@
       <c r="E633" s="17">
         <v>40000</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F633" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="13" t="s">
         <v>1630</v>
       </c>
@@ -17726,8 +19614,11 @@
       <c r="E634" s="18">
         <v>39000</v>
       </c>
-    </row>
-    <row r="635" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F634" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="13" t="s">
         <v>1632</v>
       </c>
@@ -17743,8 +19634,11 @@
       <c r="E635" s="17">
         <v>30000</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F635" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="13" t="s">
         <v>1636</v>
       </c>
@@ -17760,8 +19654,11 @@
       <c r="E636" s="18">
         <v>27000</v>
       </c>
-    </row>
-    <row r="637" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F636" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="13" t="s">
         <v>1638</v>
       </c>
@@ -17777,8 +19674,11 @@
       <c r="E637" s="17">
         <v>22000</v>
       </c>
-    </row>
-    <row r="638" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F637" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="13" t="s">
         <v>1640</v>
       </c>
@@ -17794,8 +19694,11 @@
       <c r="E638" s="18">
         <v>24000</v>
       </c>
-    </row>
-    <row r="639" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F638" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="13" t="s">
         <v>1642</v>
       </c>
@@ -17811,8 +19714,11 @@
       <c r="E639" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="640" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F639" s="4" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="13" t="s">
         <v>1645</v>
       </c>
@@ -17827,6 +19733,9 @@
       </c>
       <c r="E640" s="17">
         <v>4000</v>
+      </c>
+      <c r="F640" s="4" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="641" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17845,6 +19754,9 @@
       <c r="E641" s="18">
         <v>3000</v>
       </c>
+      <c r="F641" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="642" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="13" t="s">
@@ -17862,6 +19774,9 @@
       <c r="E642" s="17">
         <v>3000</v>
       </c>
+      <c r="F642" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="643" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="13" t="s">
@@ -17879,6 +19794,9 @@
       <c r="E643" s="18">
         <v>33000</v>
       </c>
+      <c r="F643" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="644" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="13" t="s">
@@ -17896,6 +19814,9 @@
       <c r="E644" s="17">
         <v>32000</v>
       </c>
+      <c r="F644" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="645" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="13" t="s">
@@ -17913,6 +19834,9 @@
       <c r="E645" s="17">
         <v>13000</v>
       </c>
+      <c r="F645" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="646" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="13" t="s">
@@ -17930,6 +19854,9 @@
       <c r="E646" s="18">
         <v>13500</v>
       </c>
+      <c r="F646" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="647" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="13" t="s">
@@ -17947,6 +19874,9 @@
       <c r="E647" s="18">
         <v>14000</v>
       </c>
+      <c r="F647" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="648" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="13" t="s">
@@ -17964,6 +19894,9 @@
       <c r="E648" s="18">
         <v>21000</v>
       </c>
+      <c r="F648" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="649" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="13" t="s">
@@ -17981,6 +19914,9 @@
       <c r="E649" s="17">
         <v>19000</v>
       </c>
+      <c r="F649" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="650" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="13" t="s">
@@ -17998,6 +19934,9 @@
       <c r="E650" s="17">
         <v>19000</v>
       </c>
+      <c r="F650" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="651" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="13" t="s">
@@ -18015,6 +19954,9 @@
       <c r="E651" s="18">
         <v>21000</v>
       </c>
+      <c r="F651" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="652" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="13" t="s">
@@ -18032,6 +19974,9 @@
       <c r="E652" s="18">
         <v>20000</v>
       </c>
+      <c r="F652" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="653" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="13" t="s">
@@ -18049,6 +19994,9 @@
       <c r="E653" s="17">
         <v>30000</v>
       </c>
+      <c r="F653" s="4" t="s">
+        <v>2093</v>
+      </c>
     </row>
     <row r="654" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="13" t="s">
@@ -18158,11 +20106,11 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="24"/>
-      <c r="B660" s="53" t="s">
+      <c r="B660" s="54" t="s">
         <v>1693</v>
       </c>
-      <c r="C660" s="54"/>
-      <c r="D660" s="55"/>
+      <c r="C660" s="55"/>
+      <c r="D660" s="56"/>
       <c r="E660" s="24"/>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -18659,39 +20607,39 @@
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>1694</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="64" t="s">
         <v>1695</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="64" t="s">
         <v>1696</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="64" t="s">
         <v>1697</v>
       </c>
       <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
